--- a/RenRel/Resources/ETFs list.xlsx
+++ b/RenRel/Resources/ETFs list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Rendimiento-Relativo\RenRel\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A198A4D5-0DB2-4413-8145-BB706F15938A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A9CA5C-402F-4919-BC47-32A6C605F4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{F44E96BB-5F71-4EDF-9337-17D97B4EF9F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{F44E96BB-5F71-4EDF-9337-17D97B4EF9F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="694">
   <si>
     <t>Energy</t>
   </si>
@@ -2073,13 +2073,79 @@
   </si>
   <si>
     <t>LTL</t>
+  </si>
+  <si>
+    <t>ETFs sectoriales</t>
+  </si>
+  <si>
+    <t>MDY</t>
+  </si>
+  <si>
+    <t>SLY</t>
+  </si>
+  <si>
+    <t>TLT</t>
+  </si>
+  <si>
+    <t>VEA</t>
+  </si>
+  <si>
+    <t>VWO</t>
+  </si>
+  <si>
+    <t>SPY</t>
+  </si>
+  <si>
+    <t>SECTOR</t>
+  </si>
+  <si>
+    <t>ETF name</t>
+  </si>
+  <si>
+    <t>Materials Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>Communication Services Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>Energy Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>Financial Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>Industrial Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>Technology Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>Real Estate Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>Consumer Staples Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>Utilities Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>Health Care Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>Consumer Discretionary Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>mid-sized companies</t>
+  </si>
+  <si>
+    <t>SPDR S&amp;P MIDCAP 400 ETF Trust</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2112,6 +2178,20 @@
       <name val="Arial"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2121,12 +2201,129 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2138,15 +2335,38 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2465,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2DF489-4885-4F36-816E-505212352348}">
   <dimension ref="A1:K169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2515,7 +2735,7 @@
       <c r="A2" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>274</v>
       </c>
       <c r="C2" t="s">
@@ -2550,7 +2770,7 @@
       <c r="A3" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C3" t="s">
@@ -2585,7 +2805,7 @@
       <c r="A4" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>247</v>
       </c>
       <c r="C4" t="s">
@@ -2620,7 +2840,7 @@
       <c r="A5" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>296</v>
       </c>
       <c r="C5" t="s">
@@ -2655,7 +2875,7 @@
       <c r="A6" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C6" t="s">
@@ -2690,7 +2910,7 @@
       <c r="A7" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>299</v>
       </c>
       <c r="C7" t="s">
@@ -2725,7 +2945,7 @@
       <c r="A8" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>298</v>
       </c>
       <c r="C8" t="s">
@@ -2760,7 +2980,7 @@
       <c r="A9" t="s">
         <v>239</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C9" t="s">
@@ -2795,7 +3015,7 @@
       <c r="A10" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>275</v>
       </c>
       <c r="C10" t="s">
@@ -2830,7 +3050,7 @@
       <c r="A11" t="s">
         <v>223</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>321</v>
       </c>
       <c r="D11" t="s">
@@ -2862,7 +3082,7 @@
       <c r="A12" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>320</v>
       </c>
       <c r="D12" t="s">
@@ -2894,7 +3114,7 @@
       <c r="A13" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>278</v>
       </c>
       <c r="D13" t="s">
@@ -2926,7 +3146,7 @@
       <c r="A14" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>309</v>
       </c>
       <c r="D14" t="s">
@@ -2958,7 +3178,7 @@
       <c r="A15" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>300</v>
       </c>
       <c r="D15" t="s">
@@ -2990,7 +3210,7 @@
       <c r="A16" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D16" t="s">
@@ -3022,7 +3242,7 @@
       <c r="A17" t="s">
         <v>228</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>288</v>
       </c>
       <c r="D17" t="s">
@@ -3054,7 +3274,7 @@
       <c r="A18" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>297</v>
       </c>
       <c r="D18" t="s">
@@ -3086,7 +3306,7 @@
       <c r="A19" t="s">
         <v>220</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>271</v>
       </c>
       <c r="D19" t="s">
@@ -3118,7 +3338,7 @@
       <c r="A20" t="s">
         <v>224</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D20" t="s">
@@ -3150,7 +3370,7 @@
       <c r="A21" t="s">
         <v>195</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>306</v>
       </c>
       <c r="D21" t="s">
@@ -3182,7 +3402,7 @@
       <c r="A22" t="s">
         <v>110</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>253</v>
       </c>
       <c r="D22" t="s">
@@ -3214,7 +3434,7 @@
       <c r="A23" t="s">
         <v>240</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>287</v>
       </c>
       <c r="D23" t="s">
@@ -3243,7 +3463,7 @@
       <c r="A24" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D24" t="s">
@@ -3272,7 +3492,7 @@
       <c r="A25" t="s">
         <v>159</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D25" t="s">
@@ -3301,7 +3521,7 @@
       <c r="A26" t="s">
         <v>243</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>330</v>
       </c>
       <c r="D26" t="s">
@@ -3330,7 +3550,7 @@
       <c r="A27" t="s">
         <v>241</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>270</v>
       </c>
       <c r="D27" t="s">
@@ -3359,7 +3579,7 @@
       <c r="A28" t="s">
         <v>197</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>311</v>
       </c>
       <c r="D28" t="s">
@@ -3388,7 +3608,7 @@
       <c r="A29" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>283</v>
       </c>
       <c r="D29" t="s">
@@ -3414,7 +3634,7 @@
       <c r="A30" t="s">
         <v>209</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>265</v>
       </c>
       <c r="D30" t="s">
@@ -3440,7 +3660,7 @@
       <c r="A31" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D31" t="s">
@@ -3466,7 +3686,7 @@
       <c r="A32" t="s">
         <v>204</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>290</v>
       </c>
       <c r="D32" t="s">
@@ -3492,7 +3712,7 @@
       <c r="A33" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="2" t="s">
         <v>312</v>
       </c>
       <c r="D33" t="s">
@@ -3518,7 +3738,7 @@
       <c r="A34" t="s">
         <v>188</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D34" t="s">
@@ -3544,7 +3764,7 @@
       <c r="A35" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="2" t="s">
         <v>262</v>
       </c>
       <c r="D35" t="s">
@@ -3570,7 +3790,7 @@
       <c r="A36" t="s">
         <v>163</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>316</v>
       </c>
       <c r="D36" t="s">
@@ -3596,7 +3816,7 @@
       <c r="A37" t="s">
         <v>227</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>264</v>
       </c>
       <c r="D37" t="s">
@@ -3622,7 +3842,7 @@
       <c r="A38" t="s">
         <v>221</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>315</v>
       </c>
       <c r="D38" t="s">
@@ -3648,7 +3868,7 @@
       <c r="A39" t="s">
         <v>162</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="2" t="s">
         <v>310</v>
       </c>
       <c r="D39" t="s">
@@ -3674,7 +3894,7 @@
       <c r="A40" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>307</v>
       </c>
       <c r="D40" t="s">
@@ -3700,7 +3920,7 @@
       <c r="A41" t="s">
         <v>237</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="2" t="s">
         <v>251</v>
       </c>
       <c r="D41" t="s">
@@ -3726,7 +3946,7 @@
       <c r="A42" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="2" t="s">
         <v>261</v>
       </c>
       <c r="D42" t="s">
@@ -3752,7 +3972,7 @@
       <c r="A43" t="s">
         <v>233</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="2" t="s">
         <v>272</v>
       </c>
       <c r="D43" t="s">
@@ -3778,7 +3998,7 @@
       <c r="A44" t="s">
         <v>193</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="2" t="s">
         <v>250</v>
       </c>
       <c r="D44" t="s">
@@ -3804,7 +4024,7 @@
       <c r="A45" t="s">
         <v>168</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="2" t="s">
         <v>257</v>
       </c>
       <c r="D45" t="s">
@@ -3830,7 +4050,7 @@
       <c r="A46" t="s">
         <v>169</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="2" t="s">
         <v>324</v>
       </c>
       <c r="D46" t="s">
@@ -3856,7 +4076,7 @@
       <c r="A47" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="2" t="s">
         <v>301</v>
       </c>
       <c r="D47" t="s">
@@ -3882,7 +4102,7 @@
       <c r="A48" t="s">
         <v>206</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="2" t="s">
         <v>267</v>
       </c>
       <c r="D48" t="s">
@@ -3908,7 +4128,7 @@
       <c r="A49" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="2" t="s">
         <v>329</v>
       </c>
       <c r="D49" t="s">
@@ -3931,7 +4151,7 @@
       <c r="A50" t="s">
         <v>192</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="2" t="s">
         <v>256</v>
       </c>
       <c r="D50" t="s">
@@ -3954,7 +4174,7 @@
       <c r="A51" t="s">
         <v>190</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="2" t="s">
         <v>282</v>
       </c>
       <c r="D51" t="s">
@@ -3977,7 +4197,7 @@
       <c r="A52" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="2" t="s">
         <v>308</v>
       </c>
       <c r="D52" t="s">
@@ -4000,7 +4220,7 @@
       <c r="A53" t="s">
         <v>183</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="2" t="s">
         <v>302</v>
       </c>
       <c r="D53" t="s">
@@ -4020,7 +4240,7 @@
       <c r="A54" t="s">
         <v>137</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="2" t="s">
         <v>260</v>
       </c>
       <c r="D54" t="s">
@@ -4037,7 +4257,7 @@
       <c r="A55" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D55" t="s">
@@ -4054,7 +4274,7 @@
       <c r="A56" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="2" t="s">
         <v>289</v>
       </c>
       <c r="D56" t="s">
@@ -4071,7 +4291,7 @@
       <c r="A57" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="2" t="s">
         <v>293</v>
       </c>
       <c r="D57" t="s">
@@ -4088,7 +4308,7 @@
       <c r="A58" t="s">
         <v>103</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="2" t="s">
         <v>291</v>
       </c>
       <c r="D58" t="s">
@@ -4105,7 +4325,7 @@
       <c r="A59" t="s">
         <v>167</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="2" t="s">
         <v>254</v>
       </c>
       <c r="D59" t="s">
@@ -4122,7 +4342,7 @@
       <c r="A60" t="s">
         <v>219</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="2" t="s">
         <v>319</v>
       </c>
       <c r="D60" t="s">
@@ -4139,7 +4359,7 @@
       <c r="A61" t="s">
         <v>216</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D61" t="s">
@@ -4156,7 +4376,7 @@
       <c r="A62" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="2" t="s">
         <v>294</v>
       </c>
       <c r="D62" t="s">
@@ -4173,7 +4393,7 @@
       <c r="A63" t="s">
         <v>99</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="2" t="s">
         <v>252</v>
       </c>
       <c r="D63" t="s">
@@ -4190,7 +4410,7 @@
       <c r="A64" t="s">
         <v>205</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="2" t="s">
         <v>286</v>
       </c>
       <c r="D64" t="s">
@@ -4207,7 +4427,7 @@
       <c r="A65" t="s">
         <v>230</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="2" t="s">
         <v>268</v>
       </c>
       <c r="H65" t="s">
@@ -4221,7 +4441,7 @@
       <c r="A66" t="s">
         <v>215</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="2" t="s">
         <v>277</v>
       </c>
       <c r="H66" t="s">
@@ -4232,7 +4452,7 @@
       <c r="A67" t="s">
         <v>139</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="2" t="s">
         <v>284</v>
       </c>
       <c r="H67" t="s">
@@ -4243,7 +4463,7 @@
       <c r="A68" t="s">
         <v>147</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="2" t="s">
         <v>292</v>
       </c>
       <c r="H68" t="s">
@@ -4254,7 +4474,7 @@
       <c r="A69" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="2" t="s">
         <v>295</v>
       </c>
       <c r="H69" t="s">
@@ -4265,7 +4485,7 @@
       <c r="A70" t="s">
         <v>164</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="2" t="s">
         <v>259</v>
       </c>
       <c r="H70" t="s">
@@ -4276,7 +4496,7 @@
       <c r="A71" t="s">
         <v>138</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="2" t="s">
         <v>318</v>
       </c>
       <c r="H71" t="s">
@@ -4287,7 +4507,7 @@
       <c r="A72" t="s">
         <v>85</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="2" t="s">
         <v>303</v>
       </c>
       <c r="H72" t="s">
@@ -4298,7 +4518,7 @@
       <c r="A73" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="2" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4306,7 +4526,7 @@
       <c r="A74" t="s">
         <v>203</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="2" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4314,7 +4534,7 @@
       <c r="A75" t="s">
         <v>124</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="2" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4322,7 +4542,7 @@
       <c r="A76" t="s">
         <v>189</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="2" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4330,7 +4550,7 @@
       <c r="A77" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="2" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4338,7 +4558,7 @@
       <c r="A78" t="s">
         <v>161</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="2" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4346,7 +4566,7 @@
       <c r="A79" t="s">
         <v>154</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="2" t="s">
         <v>280</v>
       </c>
     </row>
@@ -4354,7 +4574,7 @@
       <c r="A80" t="s">
         <v>185</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="2" t="s">
         <v>304</v>
       </c>
     </row>
@@ -4362,7 +4582,7 @@
       <c r="A81" t="s">
         <v>229</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="2" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4370,7 +4590,7 @@
       <c r="A82" t="s">
         <v>90</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="2" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4378,7 +4598,7 @@
       <c r="A83" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="2" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4386,7 +4606,7 @@
       <c r="A84" t="s">
         <v>155</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="2" t="s">
         <v>325</v>
       </c>
     </row>
@@ -4394,7 +4614,7 @@
       <c r="A85" t="s">
         <v>236</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4402,7 +4622,7 @@
       <c r="A86" t="s">
         <v>199</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="2" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4410,7 +4630,7 @@
       <c r="A87" t="s">
         <v>198</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="2" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4834,112 +5054,300 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37703B5C-87F7-4541-B58D-E51C194F569C}">
-  <dimension ref="B2:C13"/>
+  <dimension ref="B2:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="45.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="E2" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>166</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="E3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2">
+      <c r="F4" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>683</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="E6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="E7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="F7" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="E8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="E9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="E10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="E11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>689</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="E12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>690</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="8">
         <v>48</v>
       </c>
+      <c r="E13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>691</v>
+      </c>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>673</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>693</v>
+      </c>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
+      <c r="F15" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
+      <c r="F16" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="10"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
+      <c r="F17" s="16" t="s">
+        <v>676</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E18" s="11"/>
+      <c r="F18" s="19" t="s">
+        <v>677</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="16"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="13"/>
+      <c r="F20" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/RenRel/Resources/ETFs list.xlsx
+++ b/RenRel/Resources/ETFs list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Rendimiento-Relativo\RenRel\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A9CA5C-402F-4919-BC47-32A6C605F4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA4E374-134F-48BD-BD82-0C70AE8BD971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{F44E96BB-5F71-4EDF-9337-17D97B4EF9F1}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{F44E96BB-5F71-4EDF-9337-17D97B4EF9F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="705">
   <si>
     <t>Energy</t>
   </si>
@@ -2139,13 +2139,46 @@
   </si>
   <si>
     <t>SPDR S&amp;P MIDCAP 400 ETF Trust</t>
+  </si>
+  <si>
+    <t>Finantials</t>
+  </si>
+  <si>
+    <t>Small Cap ETF</t>
+  </si>
+  <si>
+    <t>SPDR® S&amp;P 600 Small Cap ETF</t>
+  </si>
+  <si>
+    <t>iShares 20+ Year Treasury Bond ETF</t>
+  </si>
+  <si>
+    <t>20+ Year Treasury Bond</t>
+  </si>
+  <si>
+    <t>Vanguard Developed Markets Index Fund </t>
+  </si>
+  <si>
+    <t>Developed Markets Index</t>
+  </si>
+  <si>
+    <t>Vanguard FTSE Emerging Markets Index Fund ETF Shares</t>
+  </si>
+  <si>
+    <t> Emerging Markets Index</t>
+  </si>
+  <si>
+    <t>SPDR S&amp;P 500 ETF Trust</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2191,6 +2224,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2335,38 +2373,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5056,8 +5089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37703B5C-87F7-4541-B58D-E51C194F569C}">
   <dimension ref="B2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5075,10 +5108,10 @@
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="1" t="s">
         <v>672</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -5095,16 +5128,16 @@
       <c r="C3" s="6">
         <v>166</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="22" t="s">
         <v>681</v>
       </c>
-      <c r="H3" s="26"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
@@ -5116,10 +5149,10 @@
       <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" t="s">
         <v>501</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" t="s">
         <v>682</v>
       </c>
       <c r="H4" s="10"/>
@@ -5134,14 +5167,13 @@
       <c r="E5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" t="s">
         <v>245</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="20" t="s">
         <v>683</v>
       </c>
       <c r="H5" s="10"/>
-      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
@@ -5150,13 +5182,13 @@
       <c r="C6" s="6">
         <v>63</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="F6" t="s">
         <v>453</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" t="s">
         <v>684</v>
       </c>
       <c r="H6" s="10"/>
@@ -5171,10 +5203,10 @@
       <c r="E7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" t="s">
         <v>563</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" t="s">
         <v>685</v>
       </c>
       <c r="H7" s="10"/>
@@ -5189,10 +5221,10 @@
       <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" t="s">
         <v>686</v>
       </c>
       <c r="H8" s="10"/>
@@ -5207,10 +5239,10 @@
       <c r="E9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" t="s">
         <v>404</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" t="s">
         <v>687</v>
       </c>
       <c r="H9" s="10"/>
@@ -5222,13 +5254,13 @@
       <c r="C10" s="6">
         <v>71</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" t="s">
         <v>642</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" t="s">
         <v>688</v>
       </c>
       <c r="H10" s="10"/>
@@ -5243,10 +5275,10 @@
       <c r="E11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" t="s">
         <v>615</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" t="s">
         <v>689</v>
       </c>
       <c r="H11" s="10"/>
@@ -5261,10 +5293,10 @@
       <c r="E12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" t="s">
         <v>690</v>
       </c>
       <c r="H12" s="10"/>
@@ -5279,10 +5311,10 @@
       <c r="E13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="17" t="s">
         <v>691</v>
       </c>
       <c r="H13" s="12"/>
@@ -5291,58 +5323,76 @@
       <c r="E14" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" t="s">
         <v>673</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" t="s">
         <v>693</v>
       </c>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E15" s="9"/>
-      <c r="F15" s="16" t="s">
+      <c r="E15" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="F15" t="s">
         <v>674</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" t="s">
+        <v>696</v>
+      </c>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E16" s="9"/>
-      <c r="F16" s="16" t="s">
+      <c r="E16" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="F16" t="s">
         <v>675</v>
       </c>
-      <c r="G16" s="16"/>
+      <c r="G16" t="s">
+        <v>697</v>
+      </c>
       <c r="H16" s="10"/>
-      <c r="K16" s="23"/>
+      <c r="K16" s="19"/>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="9"/>
-      <c r="F17" s="16" t="s">
+      <c r="E17" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="F17" t="s">
         <v>676</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" t="s">
+        <v>699</v>
+      </c>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="11"/>
-      <c r="F18" s="19" t="s">
+      <c r="E18" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>677</v>
       </c>
-      <c r="G18" s="19"/>
+      <c r="G18" s="17" t="s">
+        <v>701</v>
+      </c>
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="16"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="13"/>
-      <c r="F20" s="20" t="s">
+      <c r="E20" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>678</v>
       </c>
-      <c r="G20" s="20"/>
+      <c r="G20" s="23" t="s">
+        <v>703</v>
+      </c>
       <c r="H20" s="14"/>
     </row>
   </sheetData>
